--- a/flipkart_data.xlsx
+++ b/flipkart_data.xlsx
@@ -448,288 +448,288 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>realme 8 (Cyber Silver, 128 GB)</t>
+          <t>Acer One14 Backlit Intel Core i5 11th Gen 1155G7 - (16 GB/512 GB SSD/Windows 11 Home) Z8-415 Thin and ...</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>₹14,499</t>
+          <t>₹36,990</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>realme 8 (Cyber Silver, 128 GB)</t>
+          <t>Acer Nitro 5 (2023) AMD Ryzen 5 Hexa Core 7535HS - (16 GB/512 GB SSD/Windows 11 Home/4 GB Graphics/NVI...</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>₹15,499</t>
+          <t>₹68,990</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>realme 8 (Cyber Black, 128 GB)</t>
+          <t>Acer Aspire 5 Intel Core i3 13th Gen 1315U - (8 GB/512 GB SSD/Windows 11 Home) A515-58P Thin and Light...</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>₹15,499</t>
+          <t>₹37,990</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>realme 8s 5G (Universe Blue, 128 GB)</t>
+          <t>Acer Aspire 5 Intel Core i5 13th Gen 1335U - (16 GB/512 GB SSD/Windows 11 Home/4 GB Graphics/NVIDIA Ge...</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>₹19,999</t>
+          <t>₹59,990</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>realme 8s 5G (Universe Purple, 128 GB)</t>
+          <t>Acer Aspire 5 Intel Core i5 13th Gen - (8 GB/512 GB SSD/Windows 11 Home/4 GB Graphics/NVIDIA GeForce R...</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>₹19,999</t>
+          <t>₹61,500</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>realme 8 (Cyber Black, 128 GB)</t>
+          <t>Acer Aspire 5 Intel Core i5 11th Gen 1135G7 - (8 GB/512 GB SSD/Windows 11 Home/2 GB Graphics) A515-56G...</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>₹13,990</t>
+          <t>₹41,990</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>realme 8 Pro (Infinite Black, 128 GB)</t>
+          <t>Acer Aspire 5 Intel Core i5 11th Gen 1135G7 - (4 GB/512 GB SSD/Windows 10 Home/2 GB Graphics) A515-56G...</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>₹19,999</t>
+          <t>₹49,899</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>realme 8 Pro (Infinite Blue, 128 GB)</t>
+          <t>Acer Aspire 5 Intel Core i5 11th Gen 1135G7 - (8 GB/512 GB SSD/Windows 11 Home) A515-56-51EV Thin and ...</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>₹17,999</t>
+          <t>₹44,800</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>realme 8 Pro (Infinite Black, 128 GB)</t>
+          <t>Acer Aspire 5 Intel Core i5 11th Gen 1135G7 - (8 GB/512 GB SSD/Windows 11 Home) A515-56 Thin and Light...</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>₹17,999</t>
+          <t>₹48,299</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>realme 9 5G Speed Edition (Azure Glow,128GB)(8GB RAM) (Azure Glow, 128 GB)</t>
+          <t>Acer Aspire 5 Intel Core i5 8th Gen 8265U - (8 GB/1 TB HDD/Windows 10 Home/2 GB Graphics) A515-52G Thi...</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>₹22,990</t>
+          <t>₹45,991</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>realme 8 Pro (Illuminating Yellow, 128 GB)</t>
+          <t>Acer Aspire 5 Intel Core i5 11th Gen 1135G7 - (8 GB/1 TB HDD/Windows 10 Home) A514-54 Thin and Light L...</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>₹19,999</t>
+          <t>₹45,700</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>realme 8 Pro (Infinite Blue, 128 GB)</t>
+          <t>Acer Aspire 5 Intel Core i5 11th Gen 1135G4 - (8 GB/512 GB SSD/Windows 10 Home) A515-56-5695 Thin and ...</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>₹19,999</t>
+          <t>₹49,699</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>realme 8i (Space Black, 128 GB)</t>
+          <t>Acer Aspire 5 Intel Core i5 11th Gen 1135G7 - (4 GB/512 GB SSD/Windows 10 Home/2 GB Graphics) A515-56G...</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>₹13,499</t>
+          <t>₹48,667</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>realme 8i (Space Purple, 128 GB)</t>
+          <t>Acer Aspire 5 Intel Core i5 11th Gen 1135G7 - (8 GB/512 GB SSD/Windows 10 Home) A515-56-50QD Thin and ...</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>₹13,499</t>
+          <t>₹49,699</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>realme 8i (Space Purple, 64 GB)</t>
+          <t>Acer Aspire 5 Intel Core i7 11th Gen 1165G7 - (16 GB/1 TB HDD/256 GB SSD/Windows 10 Home/2 GB Graphics...</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>₹11,499</t>
+          <t>₹78,000</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>realme 8 (Cyber Black, 128 GB)</t>
+          <t>Acer Aspire 5 Intel Core i5 11th Gen 1135G7 - (8 GB/1 TB HDD/256 GB SSD/Windows 10 Home) A515-56 Thin ...</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>₹14,499</t>
+          <t>₹53,700</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>realme 8 (Cyber Silver, 128 GB)</t>
+          <t>Acer Aspire 5 Intel Core i5 10th Gen 10210U - (8 GB/512 GB SSD/Windows 10 Home/2 GB Graphics) A514-52G...</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>₹13,499</t>
+          <t>₹59,999</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>realme 8 (Punk Black, 128 GB)</t>
+          <t>Acer Aspire 5 Intel Core i5 11th Gen 1135G7 - (8 GB/1 TB HDD/256 GB SSD/Windows 10 Home) A515-56 Thin ...</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>₹13,499</t>
+          <t>₹41,999</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>realme 8s 5G (Universe Blue, 128 GB)</t>
+          <t>Acer Aspire Intel Core i3 11th Gen 1115G4 - (4 GB/256 GB SSD/Windows 10 Home) A315-58 Thin and Light L...</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>₹17,999</t>
+          <t>₹34,990</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>realme 8s 5G (Universe Purple, 128 GB)</t>
+          <t>Acer Predator Neo (2023) Intel Core i5 13th Gen 13500HX - (16 GB/512 GB SSD/Windows 11 Home/6 GB Graph...</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>₹17,999</t>
+          <t>₹99,990</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>realme 8 5G (Supersonic Black, 128 GB)</t>
+          <t>Acer Gaming Intel Core i5 13th Gen 13420H - (16 GB/512 GB SSD/Windows 11 Home/6 GB Graphics/NVIDIA GeF...</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>₹18,499</t>
+          <t>₹73,990</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>realme 8 5G (Supersonic Blue, 128 GB)</t>
+          <t>Acer Gaming Intel Core i5 13th Gen 13420H - (16 GB/512 GB SSD/Windows 11 Home/6 GB Graphics/NVIDIA GeF...</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>₹16,499</t>
+          <t>₹80,990</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>realme 8 5G (Supersonic Blue, 64 GB)</t>
+          <t>Acer Aspire 5 Gaming Intel Core i5 13th Gen 1335U - (16 GB/512 GB SSD/Windows 11 Home/4 GB Graphics/NV...</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>₹15,499</t>
+          <t>₹59,990</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>realme 8 5G (Supersonic Black, 64 GB)</t>
+          <t>Acer Nitro V Intel Core i5 13th Gen 13420H - (16 GB/512 GB SSD/Windows 11 Home/4 GB Graphics/NVIDIA Ge...</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>₹15,499</t>
+          <t>₹67,990</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>₹13,499</t>
+          <t>₹41,999</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>₹22,990</t>
+          <t>₹45,700</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>₹18,499</t>
+          <t>₹44,800</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>₹19,999</t>
+          <t>₹36,990</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>₹17,999</t>
+          <t>₹41,990</t>
         </is>
       </c>
     </row>

--- a/flipkart_data.xlsx
+++ b/flipkart_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,328 +448,512 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Acer One14 Backlit Intel Core i5 11th Gen 1155G7 - (16 GB/512 GB SSD/Windows 11 Home) Z8-415 Thin and ...</t>
+          <t>GUGGU UPI_504H Tws Bluetoth for all Smart phones Blueto...</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>₹36,990</t>
+          <t>₹859</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Acer Nitro 5 (2023) AMD Ryzen 5 Hexa Core 7535HS - (16 GB/512 GB SSD/Windows 11 Home/4 GB Graphics/NVI...</t>
+          <t>SYARA UPI_504H_ K1 Bluetooth Headset for all Smart phon...</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>₹68,990</t>
+          <t>₹379</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Acer Aspire 5 Intel Core i3 13th Gen 1315U - (8 GB/512 GB SSD/Windows 11 Home) A515-58P Thin and Light...</t>
+          <t>ROAR UPI_504H K1 Bluetooth Headset</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>₹37,990</t>
+          <t>₹449</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Acer Aspire 5 Intel Core i5 13th Gen 1335U - (16 GB/512 GB SSD/Windows 11 Home/4 GB Graphics/NVIDIA Ge...</t>
+          <t>GUGGU UPI_504H Bluetooth Headset</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>₹59,990</t>
+          <t>₹439</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Acer Aspire 5 Intel Core i5 13th Gen - (8 GB/512 GB SSD/Windows 11 Home/4 GB Graphics/NVIDIA GeForce R...</t>
+          <t>ROAR UPI_504H_ K1 Bluetooth Headset for all Smart phone...</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>₹61,500</t>
+          <t>₹499</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Acer Aspire 5 Intel Core i5 11th Gen 1135G7 - (8 GB/512 GB SSD/Windows 11 Home/2 GB Graphics) A515-56G...</t>
+          <t>SYARA UPI_504H Kaju Bluetooth Headset for all Smart pho...</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>₹41,990</t>
+          <t>₹439</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Acer Aspire 5 Intel Core i5 11th Gen 1135G7 - (4 GB/512 GB SSD/Windows 10 Home/2 GB Graphics) A515-56G...</t>
+          <t>GUGGU UPI_504H K1 Bluetoth Headset for all Smart phones...</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>₹49,899</t>
+          <t>₹379</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Acer Aspire 5 Intel Core i5 11th Gen 1135G7 - (8 GB/512 GB SSD/Windows 11 Home) A515-56-51EV Thin and ...</t>
+          <t>ROAR UPI_504H_ K1 Bluetooth Headset for all Smart phone...</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>₹44,800</t>
+          <t>₹449</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Acer Aspire 5 Intel Core i5 11th Gen 1135G7 - (8 GB/512 GB SSD/Windows 11 Home) A515-56 Thin and Light...</t>
+          <t>SYARA UPI_504H KAJU Blutooth Hadst for all Smart phons ...</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>₹48,299</t>
+          <t>₹439</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Acer Aspire 5 Intel Core i5 8th Gen 8265U - (8 GB/1 TB HDD/Windows 10 Home/2 GB Graphics) A515-52G Thi...</t>
+          <t>Jio V2 Keypad Phone (UPI) Locked</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>₹45,991</t>
+          <t>₹1,056</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Acer Aspire 5 Intel Core i5 11th Gen 1135G7 - (8 GB/1 TB HDD/Windows 10 Home) A514-54 Thin and Light L...</t>
+          <t>Jio B1 Keypad Phone (UPI) Locked Blue</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>₹45,700</t>
+          <t>₹1,419</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Acer Aspire 5 Intel Core i5 11th Gen 1135G4 - (8 GB/512 GB SSD/Windows 10 Home) A515-56-5695 Thin and ...</t>
+          <t>Jio B1 Keypad Phone (UPI) Locked</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>₹49,699</t>
+          <t>₹1,400</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Acer Aspire 5 Intel Core i5 11th Gen 1135G7 - (4 GB/512 GB SSD/Windows 10 Home/2 GB Graphics) A515-56G...</t>
+          <t>Jio V2 Keypad Phone with (UPI) Locked New</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>₹48,667</t>
+          <t>₹1,068</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Acer Aspire 5 Intel Core i5 11th Gen 1135G7 - (8 GB/512 GB SSD/Windows 10 Home) A515-56-50QD Thin and ...</t>
+          <t>mrquee upi hot Heating pad for pain relief, heating bag...</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>₹49,699</t>
+          <t>₹399</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Acer Aspire 5 Intel Core i7 11th Gen 1165G7 - (16 GB/1 TB HDD/256 GB SSD/Windows 10 Home/2 GB Graphics...</t>
+          <t>SYARA UPI_504H HSB-730 Bluetooth Headset for all Smartp...</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>₹78,000</t>
+          <t>₹459</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Acer Aspire 5 Intel Core i5 11th Gen 1135G7 - (8 GB/1 TB HDD/256 GB SSD/Windows 10 Home) A515-56 Thin ...</t>
+          <t>SYARA UPI_504HI 7 Twins Bluetooth Headset for all Smart...</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>₹53,700</t>
+          <t>₹859</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Acer Aspire 5 Intel Core i5 10th Gen 10210U - (8 GB/512 GB SSD/Windows 10 Home/2 GB Graphics) A514-52G...</t>
+          <t>SYARA UPI_504H TWS4 Bluetooth Headset for all Smart pho...</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>₹59,999</t>
+          <t>₹959</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Acer Aspire 5 Intel Core i5 11th Gen 1135G7 - (8 GB/1 TB HDD/256 GB SSD/Windows 10 Home) A515-56 Thin ...</t>
+          <t>ROAR UPI_504H_Bluetooth Headset for all Smart phones Bl...</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>₹41,999</t>
+          <t>₹749</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Acer Aspire Intel Core i3 11th Gen 1115G4 - (4 GB/256 GB SSD/Windows 10 Home) A315-58 Thin and Light L...</t>
+          <t>ROAR UPI_504H_mi Bluetooth Headset</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>₹34,990</t>
+          <t>₹449</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Acer Predator Neo (2023) Intel Core i5 13th Gen 13500HX - (16 GB/512 GB SSD/Windows 11 Home/6 GB Graph...</t>
+          <t>SYARA UPI_504H K1 Bluetoth Headset for all Smart phones...</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>₹99,990</t>
+          <t>₹379</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Acer Gaming Intel Core i5 13th Gen 13420H - (16 GB/512 GB SSD/Windows 11 Home/6 GB Graphics/NVIDIA GeF...</t>
+          <t>SYARA UPI_504H_m-i TWS-4 Bluetoth Headset for all Smart...</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>₹73,990</t>
+          <t>₹799</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Acer Gaming Intel Core i5 13th Gen 13420H - (16 GB/512 GB SSD/Windows 11 Home/6 GB Graphics/NVIDIA GeF...</t>
+          <t>SYARA UPI_504HK1 Bluetooth Headset for all Smart phones...</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>₹80,990</t>
+          <t>₹379</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Acer Aspire 5 Gaming Intel Core i5 13th Gen 1335U - (16 GB/512 GB SSD/Windows 11 Home/4 GB Graphics/NV...</t>
+          <t>GUGGU UPI_504H Ms771 Bluetooth for all Smart phones Blu...</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>₹59,990</t>
+          <t>₹999</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Acer Nitro V Intel Core i5 13th Gen 13420H - (16 GB/512 GB SSD/Windows 11 Home/4 GB Graphics/NVIDIA Ge...</t>
+          <t>itel SG400 Keypad Mobile Phone with 9.8mm Ultra Slim De...</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>₹67,990</t>
+          <t>₹1,375</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>itel SG400 Keypad Mobile Phone with 9.8mm Ultra Slim De...</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>₹41,999</t>
+          <t>₹1,398</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>itel SG200 Keypad Phone with 1200mAh Battery 1.3 MP Cam...</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>₹45,700</t>
+          <t>₹1,190</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>itel SG200 Keypad Phone with 1200mAh Battery 1.3 MP Cam...</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>₹44,800</t>
+          <t>₹1,190</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>HEPOCH Screen Guard for Fire-Boltt Phoenix Smart Watch ...</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>₹36,990</t>
+          <t>₹189</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>GUGGU UPI_504H I7 Twins Bluetooth for all Smart phones ...</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>₹41,990</t>
+          <t>₹449</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>SYARA UPI_504H_Bluetooth Headset for all Smart phones B...</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>₹499</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>SYARA UPI_504H L21 Bluetooth Headset for all Smart phon...</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>₹1,089</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Beautum Model EBMSU022482 MISS YOU Upi Name Printed Bes...</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>₹344</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>badri creations Happy Birthday Upi White Coffee Ceramic...</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>₹279</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>GUGGU UPI_324E_M4 Fitness band</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>₹559</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>GUGGU UPI_324E_M3 Fitness band</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>₹449</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Clairbell UPI_177Y_A1 Smart Watch Smartwatch</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>₹1,109</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>SYARA UPI_264L_ Smart Watch Smartwatch</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>₹1,059</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>itel SG200 Keypad Phone with 1200mAh Battery 1.3 MP Cam...</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>₹1,329</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>itel SG400 Keypad Mobile Phone with 9.8mm Ultra Slim De...</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>₹1,376</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>SYARA UPI_564L YT228 Portable tripod Compatiable with a...</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>₹1,419</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>₹1,190</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>₹1,398</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>₹1,400</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>₹379</t>
         </is>
       </c>
     </row>

--- a/flipkart_data.xlsx
+++ b/flipkart_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,512 +448,328 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GUGGU UPI_504H Tws Bluetoth for all Smart phones Blueto...</t>
+          <t>Lenovo IdeaPad Gaming 3 AMD Ryzen 5 Quad Core 5500H - (8 GB/512 GB SSD/Windows 11 Home/4 GB Graphics/N...</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>₹859</t>
+          <t>₹47,990</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SYARA UPI_504H_ K1 Bluetooth Headset for all Smart phon...</t>
+          <t>Lenovo IdeaPad Gaming 3 AMD Ryzen 5 Hexa Core 6600H - (16 GB/512 GB SSD/Windows 11 Home/4 GB Graphics/...</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>₹379</t>
+          <t>₹67,990</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ROAR UPI_504H K1 Bluetooth Headset</t>
+          <t>Lenovo IdeaPad Gaming 3 AMD Ryzen 5 Hexa Core 7535HS - (16 GB/512 GB SSD/Windows 11 Home/4 GB Graphics...</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>₹449</t>
+          <t>₹54,990</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GUGGU UPI_504H Bluetooth Headset</t>
+          <t>Lenovo IdeaPad Gaming 3 Intel Core i5 11th Gen 11300H - (8 GB/512 GB SSD/Windows 11 Home/4 GB Graphics...</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>₹439</t>
+          <t>₹62,990</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ROAR UPI_504H_ K1 Bluetooth Headset for all Smart phone...</t>
+          <t>Lenovo Ideapad Gaming 3 AMD Ryzen 5 Hexa Core 5600H - (8 GB/512 GB SSD/Windows 11 Home/4 GB Graphics/N...</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>₹499</t>
+          <t>₹59,990</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SYARA UPI_504H Kaju Bluetooth Headset for all Smart pho...</t>
+          <t>Lenovo Ideapad Gaming 3 AMD Ryzen 5 Hexa Core AMD R5-5600H - (16 GB/512 GB SSD/Windows 11 Home/4 GB Gr...</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>₹439</t>
+          <t>₹64,990</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GUGGU UPI_504H K1 Bluetoth Headset for all Smart phones...</t>
+          <t>Lenovo IdeaPad Gaming 3 Intel Core i5 11th Gen 11320H - (8 GB/512 GB SSD/Windows 11 Home/4 GB Graphics...</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>₹379</t>
+          <t>₹52,990</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ROAR UPI_504H_ K1 Bluetooth Headset for all Smart phone...</t>
+          <t>Lenovo IdeaPad Gaming 3 Intel Core i5 11th Gen 11300H - (8 GB/512 GB SSD/Windows 11 Home/4 GB Graphics...</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>₹449</t>
+          <t>₹49,990</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SYARA UPI_504H KAJU Blutooth Hadst for all Smart phons ...</t>
+          <t>Lenovo Ideapad Gaming 3 AMD Ryzen 5 Hexa Core AMD R5-5600H - (8 GB/512 GB SSD/Windows 11 Home/4 GB Gra...</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>₹439</t>
+          <t>₹50,500</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jio V2 Keypad Phone (UPI) Locked</t>
+          <t>Lenovo IdeaPad Gaming 3 Intel Core i5 12th Gen 12450H - (16 GB/512 GB SSD/Windows 11 Home/4 GB Graphic...</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>₹1,056</t>
+          <t>₹71,990</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jio B1 Keypad Phone (UPI) Locked Blue</t>
+          <t>Lenovo IdeaPad Gaming 3 Intel Core i5 11th Gen 11320H - (16 GB/512 GB SSD/Windows 11 Home/4 GB Graphic...</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>₹1,419</t>
+          <t>₹54,990</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jio B1 Keypad Phone (UPI) Locked</t>
+          <t>Lenovo IdeaPad Gaming 3 Intel Core i5 11th Gen 11320H - (8 GB/512 GB SSD/Windows 11 Home/4 GB Graphics...</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>₹1,400</t>
+          <t>₹50,990</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jio V2 Keypad Phone with (UPI) Locked New</t>
+          <t>Lenovo IdeaPad Gaming 3 AMD Ryzen 5 Quad Core 5500H - (8 GB/512 GB SSD/Windows 11 Home/4 GB Graphics/N...</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>₹1,068</t>
+          <t>₹49,990</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>mrquee upi hot Heating pad for pain relief, heating bag...</t>
+          <t>Lenovo IdeaPad Gaming 3 AMD Ryzen 5 Hexa Core 5600H - (8 GB/512 GB SSD/Windows 11 Home/4 GB Graphics/N...</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>₹399</t>
+          <t>₹59,290</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SYARA UPI_504H HSB-730 Bluetooth Headset for all Smartp...</t>
+          <t>Lenovo IdeaPad Gaming 3 Intel Core i7 12th Gen 12700H - (16 GB/512 GB SSD/Windows 11 Home/6 GB Graphic...</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>₹459</t>
+          <t>₹95,190</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SYARA UPI_504HI 7 Twins Bluetooth Headset for all Smart...</t>
+          <t>Lenovo IdeaPad Gaming 3 Intel Core i5 10th Gen 10300H - (8 GB/1 TB HDD/256 GB SSD/Windows 10 Home/4 GB...</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>₹859</t>
+          <t>₹56,676</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SYARA UPI_504H TWS4 Bluetooth Headset for all Smart pho...</t>
+          <t>Lenovo IdeaPad Gaming 3 AMD Ryzen 5 Hexa Core 5th Gen 5600H - (8 GB/1 TB HDD/256 GB SSD/Windows 11 Hom...</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>₹959</t>
+          <t>₹54,990</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ROAR UPI_504H_Bluetooth Headset for all Smart phones Bl...</t>
+          <t>Lenovo IdeaPad Gaming 3 AMD Ryzen 7 Octa Core AMD R7-5800H - (8 GB/512 GB SSD/Windows 11 Home/4 GB Gra...</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>₹749</t>
+          <t>₹72,960</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ROAR UPI_504H_mi Bluetooth Headset</t>
+          <t>Lenovo IdeaPad Gaming 3 AMD Ryzen 7 Octa Core AMD R7-5800H - (16 GB/512 GB SSD/Windows 11 Home/4 GB Gr...</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>₹449</t>
+          <t>₹70,790</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SYARA UPI_504H K1 Bluetoth Headset for all Smart phones...</t>
+          <t>Lenovo IdeaPad Gaming 3 Intel Core i5 12th Gen 12450H - (16 GB/512 GB SSD/Windows 11 Home/4 GB Graphic...</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>₹379</t>
+          <t>₹74,990</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SYARA UPI_504H_m-i TWS-4 Bluetoth Headset for all Smart...</t>
+          <t>Lenovo IdeaPad Gaming 3 AMD Ryzen 5 Hexa Core 5600H - (8 GB/512 GB SSD/Windows 10 Home/4 GB Graphics/N...</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>₹799</t>
+          <t>₹69,990</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SYARA UPI_504HK1 Bluetooth Headset for all Smart phones...</t>
+          <t>Lenovo IdeaPad Gaming 3 AMD Ryzen 5 Hexa Core AMD R5-5600H - (16 GB/512 GB SSD/Windows 11 Home/4 GB Gr...</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>₹379</t>
+          <t>₹69,990</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GUGGU UPI_504H Ms771 Bluetooth for all Smart phones Blu...</t>
+          <t>Lenovo IdeaPad Gaming 3 Intel Intel Core i5 11th Gen 11320H - (8 GB/512 GB SSD/Windows 11 Home/4 GB Gr...</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>₹999</t>
+          <t>₹46,500</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>itel SG400 Keypad Mobile Phone with 9.8mm Ultra Slim De...</t>
+          <t>Lenovo Ideapad Gaming 3 AMD AMD Ryzen 7 Octa Core 5800H - (16 GB/512 GB SSD/Windows 11 Home/4 GB Graph...</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>₹1,375</t>
+          <t>₹81,000</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>itel SG400 Keypad Mobile Phone with 9.8mm Ultra Slim De...</t>
-        </is>
-      </c>
+      <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>₹1,398</t>
+          <t>₹64,990</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>itel SG200 Keypad Phone with 1200mAh Battery 1.3 MP Cam...</t>
-        </is>
-      </c>
+      <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>₹1,190</t>
+          <t>₹69,990</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>itel SG200 Keypad Phone with 1200mAh Battery 1.3 MP Cam...</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>₹1,190</t>
+          <t>₹56,676</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>HEPOCH Screen Guard for Fire-Boltt Phoenix Smart Watch ...</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>₹189</t>
+          <t>₹49,990</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>GUGGU UPI_504H I7 Twins Bluetooth for all Smart phones ...</t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>₹449</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>SYARA UPI_504H_Bluetooth Headset for all Smart phones B...</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>₹499</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>SYARA UPI_504H L21 Bluetooth Headset for all Smart phon...</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>₹1,089</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Beautum Model EBMSU022482 MISS YOU Upi Name Printed Bes...</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>₹344</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>badri creations Happy Birthday Upi White Coffee Ceramic...</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>₹279</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>GUGGU UPI_324E_M4 Fitness band</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>₹559</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>GUGGU UPI_324E_M3 Fitness band</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>₹449</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Clairbell UPI_177Y_A1 Smart Watch Smartwatch</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>₹1,109</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>SYARA UPI_264L_ Smart Watch Smartwatch</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>₹1,059</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>itel SG200 Keypad Phone with 1200mAh Battery 1.3 MP Cam...</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>₹1,329</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>itel SG400 Keypad Mobile Phone with 9.8mm Ultra Slim De...</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>₹1,376</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>SYARA UPI_564L YT228 Portable tripod Compatiable with a...</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>₹1,419</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>₹1,190</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>₹1,398</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>₹1,400</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>₹379</t>
+          <t>₹54,990</t>
         </is>
       </c>
     </row>
